--- a/XLSX/error_floating_point_precision.xlsx
+++ b/XLSX/error_floating_point_precision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User files\Kasper\Documents\Kasper\Uni\Onderzoeksmethoden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RungeKutta\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7AB29-BB82-4950-97D1-0593F4528E01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A36EAC8-A302-46ED-AA55-D242A7EAB960}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -619,7 +619,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
+              <a:rPr lang="nl-NL" sz="2500" baseline="0"/>
               <a:t>Error as a Function of Floating Point Precision</a:t>
             </a:r>
           </a:p>
@@ -638,7 +638,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1684,7 +1684,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1697,7 +1697,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
                   <a:t>Number of Digits</a:t>
                 </a:r>
               </a:p>
@@ -1716,7 +1716,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1754,7 +1754,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1802,7 +1802,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1815,7 +1815,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -1834,7 +1834,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1872,7 +1872,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1914,7 +1914,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2530,13 +2530,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>86286</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47064</xdr:rowOff>
+      <xdr:rowOff>136711</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2864,7 +2864,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
